--- a/DataBase/stomach.xlsx
+++ b/DataBase/stomach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3693625-55F9-4A77-AA18-31FEFF2B1D3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088CF84-FDCA-4932-86B2-397BC0270214}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58F869AD-8261-40F5-B592-BB2544C8524E}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{58F869AD-8261-40F5-B592-BB2544C8524E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,11 +133,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쓰림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>역류성 식도염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속쓰림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +545,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -843,5 +843,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>